--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D143CF6-0BA9-41F1-8C8D-DE51CD37D9B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="8" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BTS!$B$1:$AL$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'External 3G cells'!$A$1:$U$13</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -555,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -652,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -681,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -705,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -729,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -753,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -777,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -801,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -830,12 +831,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -883,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -907,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -931,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -955,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -979,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1518,12 +1519,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
-    <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
+    <numFmt numFmtId="166" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="51">
     <font>
@@ -2513,7 +2514,7 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2537,16 +2538,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="47" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -2797,267 +2798,267 @@
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="261">
-    <cellStyle name="_x000a_shell=progma" xfId="4"/>
-    <cellStyle name="_x000a_shell=progma 2" xfId="96"/>
-    <cellStyle name="_x000a_shell=progma 2 2" xfId="98"/>
-    <cellStyle name="_x000a_shell=progma 2 2 2" xfId="164"/>
-    <cellStyle name="_x000a_shell=progma 3" xfId="102"/>
-    <cellStyle name="_x000a_shell=progma_CDR_TP_W10_B_Rbs_PA2" xfId="101"/>
-    <cellStyle name="%" xfId="5"/>
-    <cellStyle name="% 14" xfId="6"/>
-    <cellStyle name="% 2" xfId="7"/>
-    <cellStyle name="% 2 2 2" xfId="8"/>
-    <cellStyle name="% 7" xfId="9"/>
-    <cellStyle name="%_Asignacion RNCs MAN MALAGA 2011 S.21" xfId="10"/>
-    <cellStyle name="%_BASICO 7.2 PLANTILLA DATOS RADIO nueva integración  SIN DATOS TX 2300291 ANDUJAR MIRANDA" xfId="11"/>
-    <cellStyle name="%_DATOS RADIO AMP PORT MEDIO 7.2 400479 HUERCAL OVERA CUARTEL -b" xfId="12"/>
-    <cellStyle name="%_MA12012602-DATOS RADIO AMP PORT MEDIO 7.2 2900146 ALMOGIA EB" xfId="13"/>
-    <cellStyle name="%_MA12021301_DATOS RADIO AMP PORT M 7.2-B 7.2 2900174 OJENv2" xfId="14"/>
-    <cellStyle name="%_Masterlist" xfId="15"/>
-    <cellStyle name="%_Masterlist 2" xfId="93"/>
-    <cellStyle name="%_Plantilla_datos_radio_conf2012_v10 (2)" xfId="16"/>
-    <cellStyle name="%_Plantilla_datos_radio_conf2012_v2" xfId="17"/>
-    <cellStyle name="_DATOS RNC UMTS-020806" xfId="18"/>
-    <cellStyle name="_SAC_generar_el_archivo_en_Provincia" xfId="19"/>
-    <cellStyle name="_UMTS-AREATZA_3G-3G3G-2G" xfId="20"/>
-    <cellStyle name="_VARIOS_2011_05_25" xfId="21"/>
-    <cellStyle name="_VARIOS_2011_05_25_GOAM 1P" xfId="22"/>
-    <cellStyle name="_X_template_I.P_v1" xfId="23"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="24"/>
-    <cellStyle name="20% - Accent1 2" xfId="25"/>
-    <cellStyle name="20% - Accent1 3" xfId="221"/>
-    <cellStyle name="20% - Accent1 4" xfId="187"/>
-    <cellStyle name="20% - Accent1 5" xfId="246"/>
-    <cellStyle name="20% - Accent2 2" xfId="26"/>
-    <cellStyle name="20% - Accent2 3" xfId="220"/>
-    <cellStyle name="20% - Accent2 4" xfId="186"/>
-    <cellStyle name="20% - Accent2 5" xfId="249"/>
-    <cellStyle name="20% - Accent3 2" xfId="27"/>
-    <cellStyle name="20% - Accent3 3" xfId="219"/>
-    <cellStyle name="20% - Accent3 4" xfId="185"/>
-    <cellStyle name="20% - Accent3 5" xfId="250"/>
-    <cellStyle name="20% - Accent4 2" xfId="28"/>
-    <cellStyle name="20% - Accent4 3" xfId="218"/>
-    <cellStyle name="20% - Accent4 4" xfId="184"/>
-    <cellStyle name="20% - Accent4 5" xfId="254"/>
-    <cellStyle name="20% - Accent5 2" xfId="34"/>
-    <cellStyle name="20% - Accent5 3" xfId="130"/>
-    <cellStyle name="20% - Accent5 4" xfId="217"/>
-    <cellStyle name="20% - Accent5 5" xfId="183"/>
-    <cellStyle name="20% - Accent6 2" xfId="29"/>
-    <cellStyle name="20% - Accent6 3" xfId="216"/>
-    <cellStyle name="20% - Accent6 4" xfId="182"/>
-    <cellStyle name="20% - Accent6 5" xfId="257"/>
+    <cellStyle name="_x000a_shell=progma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_x000a_shell=progma 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_x000a_shell=progma 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_x000a_shell=progma 2 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_x000a_shell=progma 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_x000a_shell=progma_CDR_TP_W10_B_Rbs_PA2" xfId="101" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="%" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="% 14" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="% 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="% 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="% 7" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="%_Asignacion RNCs MAN MALAGA 2011 S.21" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="%_BASICO 7.2 PLANTILLA DATOS RADIO nueva integración  SIN DATOS TX 2300291 ANDUJAR MIRANDA" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="%_DATOS RADIO AMP PORT MEDIO 7.2 400479 HUERCAL OVERA CUARTEL -b" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="%_MA12012602-DATOS RADIO AMP PORT MEDIO 7.2 2900146 ALMOGIA EB" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="%_MA12021301_DATOS RADIO AMP PORT M 7.2-B 7.2 2900174 OJENv2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="%_Masterlist" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="%_Masterlist 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="%_Plantilla_datos_radio_conf2012_v10 (2)" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="%_Plantilla_datos_radio_conf2012_v2" xfId="17" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="_DATOS RNC UMTS-020806" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="_SAC_generar_el_archivo_en_Provincia" xfId="19" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="_UMTS-AREATZA_3G-3G3G-2G" xfId="20" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="_VARIOS_2011_05_25" xfId="21" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="_VARIOS_2011_05_25_GOAM 1P" xfId="22" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="_X_template_I.P_v1" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="24" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="221" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent1 5" xfId="246" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="220" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent2 5" xfId="249" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent3 5" xfId="250" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="218" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent4 5" xfId="254" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="130" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="217" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Accent5 5" xfId="183" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="216" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="182" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Accent6 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="20% - Colore 1" xfId="129" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Colore 2" xfId="128" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Colore 3" xfId="127" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Colore 4" xfId="126" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Colore 5" xfId="125" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Colore 6" xfId="124" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="30"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="31"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="32"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="33"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="35"/>
-    <cellStyle name="40% - Accent1 2" xfId="36"/>
-    <cellStyle name="40% - Accent1 3" xfId="215"/>
-    <cellStyle name="40% - Accent1 4" xfId="181"/>
-    <cellStyle name="40% - Accent1 5" xfId="247"/>
-    <cellStyle name="40% - Accent2 2" xfId="41"/>
-    <cellStyle name="40% - Accent2 3" xfId="123"/>
-    <cellStyle name="40% - Accent2 4" xfId="214"/>
-    <cellStyle name="40% - Accent2 5" xfId="180"/>
-    <cellStyle name="40% - Accent3 2" xfId="37"/>
-    <cellStyle name="40% - Accent3 3" xfId="213"/>
-    <cellStyle name="40% - Accent3 4" xfId="179"/>
-    <cellStyle name="40% - Accent3 5" xfId="251"/>
-    <cellStyle name="40% - Accent4 2" xfId="38"/>
-    <cellStyle name="40% - Accent4 3" xfId="212"/>
-    <cellStyle name="40% - Accent4 4" xfId="178"/>
-    <cellStyle name="40% - Accent4 5" xfId="255"/>
-    <cellStyle name="40% - Accent5 2" xfId="44"/>
-    <cellStyle name="40% - Accent5 3" xfId="122"/>
-    <cellStyle name="40% - Accent5 4" xfId="211"/>
-    <cellStyle name="40% - Accent5 5" xfId="177"/>
-    <cellStyle name="40% - Accent6 2" xfId="39"/>
-    <cellStyle name="40% - Accent6 3" xfId="210"/>
-    <cellStyle name="40% - Accent6 4" xfId="176"/>
-    <cellStyle name="40% - Accent6 5" xfId="258"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="215" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="181" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - Accent1 5" xfId="247" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="214" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - Accent2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="179" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Accent3 5" xfId="251" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="212" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="178" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Accent4 5" xfId="255" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Accent5 5" xfId="177" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="210" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="176" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - Accent6 5" xfId="258" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="40% - Colore 1" xfId="121" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Colore 2" xfId="120" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Colore 3" xfId="119" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Colore 4" xfId="118" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Colore 5" xfId="117" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Colore 6" xfId="116" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="40"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="42"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="43"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="45"/>
-    <cellStyle name="60% - Accent1 2" xfId="46"/>
-    <cellStyle name="60% - Accent1 3" xfId="209"/>
-    <cellStyle name="60% - Accent1 4" xfId="175"/>
-    <cellStyle name="60% - Accent1 5" xfId="248"/>
-    <cellStyle name="60% - Accent2 2" xfId="51"/>
-    <cellStyle name="60% - Accent2 3" xfId="115"/>
-    <cellStyle name="60% - Accent2 4" xfId="208"/>
-    <cellStyle name="60% - Accent2 5" xfId="174"/>
-    <cellStyle name="60% - Accent3 2" xfId="47"/>
-    <cellStyle name="60% - Accent3 3" xfId="207"/>
-    <cellStyle name="60% - Accent3 4" xfId="173"/>
-    <cellStyle name="60% - Accent3 5" xfId="252"/>
-    <cellStyle name="60% - Accent4 2" xfId="48"/>
-    <cellStyle name="60% - Accent4 3" xfId="206"/>
-    <cellStyle name="60% - Accent4 4" xfId="172"/>
-    <cellStyle name="60% - Accent4 5" xfId="256"/>
-    <cellStyle name="60% - Accent5 2" xfId="54"/>
-    <cellStyle name="60% - Accent5 3" xfId="114"/>
-    <cellStyle name="60% - Accent5 4" xfId="205"/>
-    <cellStyle name="60% - Accent5 5" xfId="171"/>
-    <cellStyle name="60% - Accent6 2" xfId="49"/>
-    <cellStyle name="60% - Accent6 3" xfId="222"/>
-    <cellStyle name="60% - Accent6 4" xfId="188"/>
-    <cellStyle name="60% - Accent6 5" xfId="259"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="209" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="60% - Accent1 4" xfId="175" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="60% - Accent1 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="60% - Accent2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="60% - Accent2 4" xfId="208" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="60% - Accent2 5" xfId="174" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="207" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="60% - Accent3 4" xfId="173" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="60% - Accent3 5" xfId="252" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="206" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="60% - Accent4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="60% - Accent4 5" xfId="256" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="60% - Accent5 3" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="60% - Accent5 4" xfId="205" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="60% - Accent5 5" xfId="171" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="222" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="60% - Accent6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="60% - Accent6 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="60% - Colore 1" xfId="113" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Colore 2" xfId="112" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Colore 3" xfId="111" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Colore 4" xfId="110" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Colore 5" xfId="109" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Colore 6" xfId="131" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="50"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="52"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="53"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="55"/>
-    <cellStyle name="Accent1 2" xfId="56"/>
-    <cellStyle name="Accent1 3" xfId="223"/>
-    <cellStyle name="Accent1 4" xfId="189"/>
-    <cellStyle name="Accent1 5" xfId="245"/>
-    <cellStyle name="Accent2 2" xfId="66"/>
-    <cellStyle name="Accent2 3" xfId="132"/>
-    <cellStyle name="Accent2 4" xfId="224"/>
-    <cellStyle name="Accent2 5" xfId="190"/>
-    <cellStyle name="Accent3 2" xfId="67"/>
-    <cellStyle name="Accent3 3" xfId="133"/>
-    <cellStyle name="Accent3 4" xfId="225"/>
-    <cellStyle name="Accent3 5" xfId="191"/>
-    <cellStyle name="Accent4 2" xfId="57"/>
-    <cellStyle name="Accent4 3" xfId="226"/>
-    <cellStyle name="Accent4 4" xfId="192"/>
-    <cellStyle name="Accent4 5" xfId="253"/>
-    <cellStyle name="Accent5 2" xfId="69"/>
-    <cellStyle name="Accent5 3" xfId="134"/>
-    <cellStyle name="Accent5 4" xfId="227"/>
-    <cellStyle name="Accent5 5" xfId="193"/>
-    <cellStyle name="Accent6 2" xfId="70"/>
-    <cellStyle name="Accent6 3" xfId="135"/>
-    <cellStyle name="Accent6 4" xfId="228"/>
-    <cellStyle name="Accent6 5" xfId="194"/>
-    <cellStyle name="Bad 2" xfId="76"/>
-    <cellStyle name="Bad 3" xfId="136"/>
-    <cellStyle name="Bad 4" xfId="237"/>
-    <cellStyle name="Bad 5" xfId="203"/>
-    <cellStyle name="Buena 2" xfId="58"/>
-    <cellStyle name="Calcolo" xfId="165"/>
-    <cellStyle name="Calculation 2" xfId="59"/>
-    <cellStyle name="Cálculo 2" xfId="60"/>
-    <cellStyle name="Celda de comprobación 2" xfId="61"/>
-    <cellStyle name="Celda vinculada 2" xfId="62"/>
-    <cellStyle name="Cella collegata" xfId="166"/>
-    <cellStyle name="Cella da controllare" xfId="167"/>
-    <cellStyle name="Check Cell 2" xfId="137"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Accent1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Accent1 3" xfId="223" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Accent1 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Accent1 5" xfId="245" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Accent2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Accent2 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Accent2 4" xfId="224" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Accent2 5" xfId="190" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Accent3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Accent3 3" xfId="133" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Accent3 4" xfId="225" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Accent3 5" xfId="191" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Accent4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Accent4 3" xfId="226" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Accent4 4" xfId="192" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Accent4 5" xfId="253" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Accent5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Accent5 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Accent5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Accent5 5" xfId="193" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Accent6 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Accent6 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Accent6 4" xfId="228" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Accent6 5" xfId="194" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Bad 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Bad 3" xfId="136" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Bad 4" xfId="237" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Bad 5" xfId="203" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Buena 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Calcolo" xfId="165" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Calculation 2" xfId="59" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Cálculo 2" xfId="60" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Celda de comprobación 2" xfId="61" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Celda vinculada 2" xfId="62" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Cella collegata" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Cella da controllare" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Check Cell 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Colore 1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Colore 2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Colore 3" xfId="140" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Colore 4" xfId="141" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Colore 5" xfId="142" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Colore 6" xfId="143" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="edlsfjk" xfId="63"/>
-    <cellStyle name="Encabezado 4 2" xfId="64"/>
-    <cellStyle name="Énfasis1 2" xfId="65"/>
-    <cellStyle name="Énfasis4 2" xfId="68"/>
-    <cellStyle name="Entrada 2" xfId="71"/>
-    <cellStyle name="Estilo 1" xfId="72"/>
-    <cellStyle name="Euro" xfId="73"/>
-    <cellStyle name="Euro 2" xfId="95"/>
-    <cellStyle name="Explanatory Text 2" xfId="86"/>
-    <cellStyle name="Explanatory Text 3" xfId="144"/>
-    <cellStyle name="Explanatory Text 4" xfId="230"/>
-    <cellStyle name="Explanatory Text 5" xfId="196"/>
-    <cellStyle name="Good 2" xfId="145"/>
-    <cellStyle name="Good 3" xfId="238"/>
-    <cellStyle name="Good 4" xfId="204"/>
-    <cellStyle name="Good 5" xfId="244"/>
-    <cellStyle name="Heading 1 2" xfId="146"/>
-    <cellStyle name="Heading 1 3" xfId="232"/>
-    <cellStyle name="Heading 1 4" xfId="198"/>
-    <cellStyle name="Heading 1 5" xfId="240"/>
-    <cellStyle name="Heading 2 2" xfId="74"/>
-    <cellStyle name="Heading 2 3" xfId="233"/>
-    <cellStyle name="Heading 2 4" xfId="199"/>
-    <cellStyle name="Heading 2 5" xfId="241"/>
-    <cellStyle name="Heading 3 2" xfId="75"/>
-    <cellStyle name="Heading 3 3" xfId="234"/>
-    <cellStyle name="Heading 3 4" xfId="200"/>
-    <cellStyle name="Heading 3 5" xfId="242"/>
-    <cellStyle name="Heading 4 2" xfId="147"/>
-    <cellStyle name="Heading 4 3" xfId="235"/>
-    <cellStyle name="Heading 4 4" xfId="201"/>
-    <cellStyle name="Heading 4 5" xfId="243"/>
+    <cellStyle name="edlsfjk" xfId="63" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Encabezado 4 2" xfId="64" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Énfasis1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Énfasis4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Entrada 2" xfId="71" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Estilo 1" xfId="72" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Euro" xfId="73" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Euro 2" xfId="95" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="86" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Explanatory Text 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Explanatory Text 4" xfId="230" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Explanatory Text 5" xfId="196" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Good 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Good 3" xfId="238" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Good 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Good 5" xfId="244" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Heading 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Heading 1 3" xfId="232" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Heading 1 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Heading 1 5" xfId="240" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Heading 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Heading 2 3" xfId="233" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Heading 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Heading 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Heading 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Heading 3 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Heading 3 4" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Heading 3 5" xfId="242" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Heading 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Heading 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Heading 4 4" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Heading 4 5" xfId="243" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
     <cellStyle name="Input" xfId="2" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="148"/>
-    <cellStyle name="Jun" xfId="97"/>
-    <cellStyle name="Linked Cell 2" xfId="149"/>
-    <cellStyle name="Migliaia (0)_app2" xfId="99"/>
-    <cellStyle name="Neutral 2" xfId="77"/>
-    <cellStyle name="Neutral 3" xfId="150"/>
-    <cellStyle name="Neutral 4" xfId="229"/>
-    <cellStyle name="Neutral 5" xfId="195"/>
+    <cellStyle name="Input 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Jun" xfId="97" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Migliaia (0)_app2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Neutral 2" xfId="77" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Neutral 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Neutral 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Neutral 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Neutrale" xfId="151" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="78"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="79"/>
-    <cellStyle name="Normal 3 2" xfId="94"/>
-    <cellStyle name="Normal 4" xfId="100"/>
-    <cellStyle name="Normal 4 2" xfId="170"/>
+    <cellStyle name="Normal 2" xfId="78" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 3" xfId="79" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 3 2" xfId="94" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 4" xfId="100" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="108"/>
-    <cellStyle name="Normale 4" xfId="106"/>
-    <cellStyle name="Normale_CDR_Wind_Project_Roma_revH_6_0_fogli radio 2" xfId="260"/>
-    <cellStyle name="Nota" xfId="169"/>
-    <cellStyle name="Nota 2" xfId="103"/>
-    <cellStyle name="Nota 2 2" xfId="107"/>
-    <cellStyle name="Notas 2" xfId="80"/>
-    <cellStyle name="Note 2" xfId="152"/>
-    <cellStyle name="nteb" xfId="81"/>
+    <cellStyle name="Normale 2" xfId="108" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normale 4" xfId="106" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normale_CDR_Wind_Project_Roma_revH_6_0_fogli radio 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Nota" xfId="169" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Nota 2" xfId="103" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Nota 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Notas 2" xfId="80" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Note 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="nteb" xfId="81" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Output" xfId="3" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Output 2" xfId="82"/>
-    <cellStyle name="Salida 2" xfId="83"/>
-    <cellStyle name="Style 1" xfId="84"/>
-    <cellStyle name="Style 1 2" xfId="105"/>
-    <cellStyle name="Testo avviso" xfId="168"/>
+    <cellStyle name="Output 2" xfId="82" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Salida 2" xfId="83" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Style 1" xfId="84" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Style 1 2" xfId="105" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Testo avviso" xfId="168" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
     <cellStyle name="Testo descrittivo" xfId="153" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia 2" xfId="85"/>
-    <cellStyle name="Title 2" xfId="87"/>
-    <cellStyle name="Title 3" xfId="231"/>
-    <cellStyle name="Title 4" xfId="197"/>
-    <cellStyle name="Title 5" xfId="239"/>
+    <cellStyle name="Texto de advertencia 2" xfId="85" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Title 2" xfId="87" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Title 3" xfId="231" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Title 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Title 5" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
     <cellStyle name="Titolo" xfId="154" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titolo 1" xfId="155" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titolo 2" xfId="156" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titolo 3" xfId="157" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Titolo 4" xfId="158" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Título 1 2" xfId="88"/>
-    <cellStyle name="Título 2 2" xfId="89"/>
-    <cellStyle name="Título 3 2" xfId="90"/>
-    <cellStyle name="Título 4" xfId="91"/>
-    <cellStyle name="Total 2" xfId="92"/>
-    <cellStyle name="Total 3" xfId="159"/>
-    <cellStyle name="Total 4" xfId="236"/>
-    <cellStyle name="Total 5" xfId="202"/>
+    <cellStyle name="Título 1 2" xfId="88" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Título 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Título 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Título 4" xfId="91" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Total 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Total 3" xfId="159" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Total 4" xfId="236" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Total 5" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Totale" xfId="160" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Valore non valido" xfId="161" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Valore valido" xfId="162" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Valuta (0)_app2" xfId="104"/>
-    <cellStyle name="Warning Text 2" xfId="163"/>
+    <cellStyle name="Valuta (0)_app2" xfId="104" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Warning Text 2" xfId="163" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3366,7 +3367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3428,12 +3429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC15" sqref="AC15"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4192,7 +4193,7 @@
     <sortCondition ref="C2:C7"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"keep_locked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4203,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4842,7 +4843,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9"/>
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <sortState ref="A2:J267">
     <sortCondition ref="C2:C267"/>
     <sortCondition ref="E2:E267"/>
@@ -4852,7 +4853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5669,17 +5670,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -6587,7 +6588,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U13"/>
+  <autoFilter ref="A1:U13" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <sortState ref="A2:U102">
     <sortCondition ref="B2:B102"/>
   </sortState>
@@ -6597,7 +6598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D143CF6-0BA9-41F1-8C8D-DE51CD37D9B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD8A098-2883-45BF-AE23-B9FB3288F51D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3434,7 +3434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="H3" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3605,14 +3605,14 @@
         <v>102</v>
       </c>
       <c r="F2" s="38">
-        <v>34561</v>
+        <v>34562</v>
       </c>
       <c r="G2" s="31">
         <v>52404</v>
       </c>
       <c r="H2" s="15" t="str">
-        <f t="shared" ref="H2:H6" si="1">"222-88-"&amp;F2&amp;"-"&amp;G2</f>
-        <v>222-88-34561-52404</v>
+        <f>"222-88-"&amp;F2&amp;"-"&amp;G2</f>
+        <v>222-88-34562-52404</v>
       </c>
       <c r="I2" s="2">
         <v>7</v>
@@ -3639,26 +3639,26 @@
         <v>43</v>
       </c>
       <c r="Q2" s="15">
-        <f t="shared" ref="Q2:Q6" si="2">P2</f>
+        <f t="shared" ref="Q2:Q6" si="1">P2</f>
         <v>43</v>
       </c>
       <c r="R2" s="31">
         <v>56</v>
       </c>
       <c r="S2" s="15">
-        <f t="shared" ref="S2:S6" si="3">R2</f>
+        <f t="shared" ref="S2:S6" si="2">R2</f>
         <v>56</v>
       </c>
       <c r="T2" s="15">
-        <f t="shared" ref="T2:T6" si="4">IF(MID(C2,6,1)="G",104,IF(MID(C2,6,1)="D",102,"NA"))</f>
+        <f t="shared" ref="T2:T6" si="3">IF(MID(C2,6,1)="G",104,IF(MID(C2,6,1)="D",102,"NA"))</f>
         <v>104</v>
       </c>
       <c r="U2" s="15">
-        <f t="shared" ref="U2:U6" si="5">IF(MID(C2,6,1)="G",33,IF(MID(C2,6,1)="D",30,"NA"))</f>
+        <f t="shared" ref="U2:U6" si="4">IF(MID(C2,6,1)="G",33,IF(MID(C2,6,1)="D",30,"NA"))</f>
         <v>33</v>
       </c>
       <c r="V2" s="15">
-        <f t="shared" ref="V2:V6" si="6">U2</f>
+        <f t="shared" ref="V2:V6" si="5">U2</f>
         <v>33</v>
       </c>
       <c r="W2" s="15">
@@ -3673,11 +3673,11 @@
         <v>SY</v>
       </c>
       <c r="Z2" s="15">
-        <f t="shared" ref="Z2:Z6" si="7">IF(AA2&gt;16,1,0)</f>
+        <f t="shared" ref="Z2:Z6" si="6">IF(AA2&gt;16,1,0)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="15">
-        <f t="shared" ref="AA2:AA6" si="8">8*X2</f>
+        <f t="shared" ref="AA2:AA6" si="7">8*X2</f>
         <v>8</v>
       </c>
       <c r="AB2" s="38">
@@ -3724,7 +3724,7 @@
         <v>52405</v>
       </c>
       <c r="H3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"222-88-"&amp;F3&amp;"-"&amp;G3</f>
         <v>222-88-34561-52405</v>
       </c>
       <c r="I3" s="2">
@@ -3752,45 +3752,45 @@
         <v>43</v>
       </c>
       <c r="Q3" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="R3" s="31">
         <v>56</v>
       </c>
       <c r="S3" s="15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="T3" s="15">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="T3" s="15">
+        <v>104</v>
+      </c>
+      <c r="U3" s="15">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="U3" s="15">
+        <v>33</v>
+      </c>
+      <c r="V3" s="15">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="V3" s="15">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
       <c r="W3" s="15">
-        <f t="shared" ref="W3:W6" si="9">IF(X3&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="W3:W6" si="8">IF(X3&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
       <c r="X3" s="31">
         <v>2</v>
       </c>
       <c r="Y3" s="15" t="str">
-        <f t="shared" ref="Y3:Y6" si="10">IF(X3&lt;&gt;"","SY","")</f>
+        <f t="shared" ref="Y3:Y6" si="9">IF(X3&lt;&gt;"","SY","")</f>
         <v>SY</v>
       </c>
       <c r="Z3" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="15">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AB3" s="38">
@@ -3837,7 +3837,7 @@
         <v>52406</v>
       </c>
       <c r="H4" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H2:H6" si="10">"222-88-"&amp;F4&amp;"-"&amp;G4</f>
         <v>222-88-34561-52406</v>
       </c>
       <c r="I4" s="2">
@@ -3865,45 +3865,45 @@
         <v>43</v>
       </c>
       <c r="Q4" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="R4" s="31">
         <v>56</v>
       </c>
       <c r="S4" s="15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="T4" s="15">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="T4" s="15">
+        <v>104</v>
+      </c>
+      <c r="U4" s="15">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="U4" s="15">
+        <v>33</v>
+      </c>
+      <c r="V4" s="15">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="V4" s="15">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
       <c r="W4" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X4" s="31">
         <v>2</v>
       </c>
       <c r="Y4" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>SY</v>
       </c>
       <c r="Z4" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AB4" s="38">
@@ -3950,7 +3950,7 @@
         <v>64465</v>
       </c>
       <c r="H5" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>222-88-34561-64465</v>
       </c>
       <c r="I5" s="2">
@@ -3978,45 +3978,45 @@
         <v>43</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="R5" s="31">
         <v>56</v>
       </c>
       <c r="S5" s="15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="T5" s="15">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="T5" s="15">
+        <v>102</v>
+      </c>
+      <c r="U5" s="15">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="U5" s="15">
+        <v>30</v>
+      </c>
+      <c r="V5" s="15">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="V5" s="15">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
       <c r="W5" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X5" s="31">
         <v>3</v>
       </c>
       <c r="Y5" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>SY</v>
       </c>
       <c r="Z5" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA5" s="15">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AB5" s="31">
@@ -4071,7 +4071,7 @@
         <v>64466</v>
       </c>
       <c r="H6" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>222-88-34561-64466</v>
       </c>
       <c r="I6" s="2">
@@ -4099,45 +4099,45 @@
         <v>43</v>
       </c>
       <c r="Q6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="R6" s="31">
         <v>56</v>
       </c>
       <c r="S6" s="15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="T6" s="15">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="T6" s="15">
+        <v>102</v>
+      </c>
+      <c r="U6" s="15">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="U6" s="15">
+        <v>30</v>
+      </c>
+      <c r="V6" s="15">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="V6" s="15">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
       <c r="W6" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X6" s="31">
         <v>3</v>
       </c>
       <c r="Y6" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>SY</v>
       </c>
       <c r="Z6" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="15">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AB6" s="31">

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD8A098-2883-45BF-AE23-B9FB3288F51D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2E447-31D7-4E5B-9053-028D1B26DCB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3433,8 +3433,8 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H2:H3"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3837,7 +3837,7 @@
         <v>52406</v>
       </c>
       <c r="H4" s="15" t="str">
-        <f t="shared" ref="H2:H6" si="10">"222-88-"&amp;F4&amp;"-"&amp;G4</f>
+        <f t="shared" ref="H4:H6" si="10">"222-88-"&amp;F4&amp;"-"&amp;G4</f>
         <v>222-88-34561-52406</v>
       </c>
       <c r="I4" s="2">
@@ -4209,7 +4209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4857,7 +4857,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G31"/>
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2E447-31D7-4E5B-9053-028D1B26DCB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282EAC29-C090-44C5-B192-947D7515B69A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="112">
   <si>
     <t>TG</t>
   </si>
@@ -1489,9 +1489,6 @@
     <t>RXSTG-456</t>
   </si>
   <si>
-    <t>RXSTG-457</t>
-  </si>
-  <si>
     <t>RXSTG-458</t>
   </si>
   <si>
@@ -1514,6 +1511,9 @@
   </si>
   <si>
     <t>R1</t>
+  </si>
+  <si>
+    <t>222-88-34562-52404</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2705,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2796,6 +2796,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="_x000a_shell=progma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3433,8 +3437,8 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2:P3"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3714,8 +3718,8 @@
         <f t="shared" si="0"/>
         <v>LT068G</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>103</v>
+      <c r="E3" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="F3" s="38">
         <v>34561</v>
@@ -3723,9 +3727,8 @@
       <c r="G3" s="31">
         <v>52405</v>
       </c>
-      <c r="H3" s="15" t="str">
-        <f>"222-88-"&amp;F3&amp;"-"&amp;G3</f>
-        <v>222-88-34561-52405</v>
+      <c r="H3" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="I3" s="2">
         <v>7</v>
@@ -3807,7 +3810,9 @@
       <c r="AG3" s="31">
         <v>124</v>
       </c>
-      <c r="AH3" s="30"/>
+      <c r="AH3" s="31">
+        <v>124</v>
+      </c>
       <c r="AI3" s="30"/>
       <c r="AJ3" s="30"/>
       <c r="AK3" s="30"/>
@@ -3828,7 +3833,7 @@
         <v>LT068G</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="38">
         <v>34561</v>
@@ -3920,7 +3925,9 @@
       <c r="AG4" s="31">
         <v>121</v>
       </c>
-      <c r="AH4" s="30"/>
+      <c r="AH4" s="31">
+        <v>121</v>
+      </c>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="30"/>
       <c r="AK4" s="30"/>
@@ -3941,7 +3948,7 @@
         <v>LT068D</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="38">
         <v>34561</v>
@@ -4062,7 +4069,7 @@
         <v>LT068D</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="38">
         <v>34561</v>
@@ -4167,6 +4174,9 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="AH7" s="40"/>
     </row>
     <row r="10" spans="1:38">
       <c r="AG10" s="31"/>
@@ -4244,7 +4254,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4274,7 +4284,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4304,7 +4314,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4334,7 +4344,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4364,7 +4374,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4394,7 +4404,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4424,7 +4434,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4454,7 +4464,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4484,7 +4494,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4514,7 +4524,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4544,7 +4554,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4574,7 +4584,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4604,7 +4614,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4634,7 +4644,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4664,7 +4674,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4694,7 +4704,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4724,7 +4734,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4754,7 +4764,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4784,7 +4794,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4814,7 +4824,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4891,7 +4901,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4917,7 +4927,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4943,7 +4953,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4969,7 +4979,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4995,7 +5005,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5021,7 +5031,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5047,7 +5057,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5073,7 +5083,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5099,7 +5109,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5125,7 +5135,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5151,7 +5161,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5177,7 +5187,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5203,7 +5213,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5229,7 +5239,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5255,7 +5265,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5281,7 +5291,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5302,12 +5312,12 @@
         <v>73</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5328,12 +5338,12 @@
         <v>73</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5354,12 +5364,12 @@
         <v>73</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5385,7 +5395,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5411,7 +5421,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5437,7 +5447,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5463,7 +5473,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5489,7 +5499,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5515,7 +5525,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5541,7 +5551,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5567,7 +5577,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5593,7 +5603,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5619,7 +5629,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5645,7 +5655,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5768,7 +5778,7 @@
         <v>LT068R1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="28">
         <v>402</v>
@@ -5837,7 +5847,7 @@
         <v>LT068R2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="28">
         <v>402</v>
@@ -5906,7 +5916,7 @@
         <v>LT068R3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="28">
         <v>402</v>
@@ -5975,7 +5985,7 @@
         <v>LT068U1</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="28">
         <v>402</v>
@@ -6044,7 +6054,7 @@
         <v>LT068U2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="28">
         <v>402</v>
@@ -6113,7 +6123,7 @@
         <v>LT068U3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="28">
         <v>402</v>
@@ -6182,7 +6192,7 @@
         <v>LT068V1</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="28">
         <v>402</v>
@@ -6251,7 +6261,7 @@
         <v>LT068V2</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="28">
         <v>402</v>
@@ -6320,7 +6330,7 @@
         <v>LT068V3</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="28">
         <v>402</v>
@@ -6389,7 +6399,7 @@
         <v>LT068W1</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="28">
         <v>402</v>
@@ -6458,7 +6468,7 @@
         <v>LT068W2</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="28">
         <v>402</v>
@@ -6527,7 +6537,7 @@
         <v>LT068W3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="28">
         <v>402</v>

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282EAC29-C090-44C5-B192-947D7515B69A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792292FA-361D-48BB-966B-1591DAC44CE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
   <si>
     <t>TG</t>
   </si>
@@ -1486,9 +1486,6 @@
     <t>RM01BSC</t>
   </si>
   <si>
-    <t>RXSTG-456</t>
-  </si>
-  <si>
     <t>RXSTG-458</t>
   </si>
   <si>
@@ -1513,7 +1510,7 @@
     <t>R1</t>
   </si>
   <si>
-    <t>222-88-34562-52404</t>
+    <t>RXSTG-457</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2702,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2797,9 +2794,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="_x000a_shell=progma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3437,8 +3431,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3606,7 +3599,7 @@
         <v>LT068G</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F2" s="38">
         <v>34562</v>
@@ -3718,8 +3711,8 @@
         <f t="shared" si="0"/>
         <v>LT068G</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>102</v>
+      <c r="E3" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="F3" s="38">
         <v>34561</v>
@@ -3727,8 +3720,9 @@
       <c r="G3" s="31">
         <v>52405</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>111</v>
+      <c r="H3" s="15" t="str">
+        <f>"222-88-"&amp;F3&amp;"-"&amp;G3</f>
+        <v>222-88-34561-52405</v>
       </c>
       <c r="I3" s="2">
         <v>7</v>
@@ -3833,7 +3827,7 @@
         <v>LT068G</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="38">
         <v>34561</v>
@@ -3948,7 +3942,7 @@
         <v>LT068D</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="38">
         <v>34561</v>
@@ -4069,7 +4063,7 @@
         <v>LT068D</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="38">
         <v>34561</v>
@@ -4254,7 +4248,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4284,7 +4278,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4314,7 +4308,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4344,7 +4338,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4374,7 +4368,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4404,7 +4398,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4434,7 +4428,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4464,7 +4458,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4494,7 +4488,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4524,7 +4518,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4554,7 +4548,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4584,7 +4578,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4614,7 +4608,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4644,7 +4638,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4674,7 +4668,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4704,7 +4698,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4734,7 +4728,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4764,7 +4758,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4794,7 +4788,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4824,7 +4818,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="16" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4901,7 +4895,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4927,7 +4921,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4953,7 +4947,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -4979,7 +4973,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5005,7 +4999,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5031,7 +5025,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5057,7 +5051,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5083,7 +5077,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5109,7 +5103,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5135,7 +5129,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5161,7 +5155,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5187,7 +5181,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5213,7 +5207,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5239,7 +5233,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5265,7 +5259,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5291,7 +5285,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5312,12 +5306,12 @@
         <v>73</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5338,12 +5332,12 @@
         <v>73</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5364,12 +5358,12 @@
         <v>73</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5395,7 +5389,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5421,7 +5415,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5447,7 +5441,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5473,7 +5467,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5499,7 +5493,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5525,7 +5519,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5551,7 +5545,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5577,7 +5571,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5603,7 +5597,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5629,7 +5623,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5655,7 +5649,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="34" t="str">
         <f>[1]BTS!$B$2</f>
@@ -5778,7 +5772,7 @@
         <v>LT068R1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="28">
         <v>402</v>
@@ -5847,7 +5841,7 @@
         <v>LT068R2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="28">
         <v>402</v>
@@ -5916,7 +5910,7 @@
         <v>LT068R3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="28">
         <v>402</v>
@@ -5985,7 +5979,7 @@
         <v>LT068U1</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="28">
         <v>402</v>
@@ -6054,7 +6048,7 @@
         <v>LT068U2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="28">
         <v>402</v>
@@ -6123,7 +6117,7 @@
         <v>LT068U3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="28">
         <v>402</v>
@@ -6192,7 +6186,7 @@
         <v>LT068V1</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="28">
         <v>402</v>
@@ -6261,7 +6255,7 @@
         <v>LT068V2</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="28">
         <v>402</v>
@@ -6330,7 +6324,7 @@
         <v>LT068V3</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="28">
         <v>402</v>
@@ -6399,7 +6393,7 @@
         <v>LT068W1</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="28">
         <v>402</v>
@@ -6468,7 +6462,7 @@
         <v>LT068W2</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="28">
         <v>402</v>
@@ -6537,7 +6531,7 @@
         <v>LT068W3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="28">
         <v>402</v>

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792292FA-361D-48BB-966B-1591DAC44CE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1136E6-358B-46D8-A863-DB82EFDAF99E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="112">
   <si>
     <t>TG</t>
   </si>
@@ -1511,6 +1511,9 @@
   </si>
   <si>
     <t>RXSTG-457</t>
+  </si>
+  <si>
+    <t>RXSTG-456</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2705,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2794,6 +2797,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="_x000a_shell=progma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3431,7 +3435,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3599,7 +3603,7 @@
         <v>LT068G</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="38">
         <v>34562</v>
@@ -3796,7 +3800,9 @@
       <c r="AC3" s="31">
         <v>0</v>
       </c>
-      <c r="AD3" s="31"/>
+      <c r="AD3" s="31">
+        <v>1</v>
+      </c>
       <c r="AE3" s="31"/>
       <c r="AF3" s="31">
         <v>120</v>
@@ -3911,7 +3917,9 @@
       <c r="AC4" s="31">
         <v>1</v>
       </c>
-      <c r="AD4" s="31"/>
+      <c r="AD4" s="31">
+        <v>1</v>
+      </c>
       <c r="AE4" s="31"/>
       <c r="AF4" s="31">
         <v>102</v>
@@ -4052,7 +4060,7 @@
       <c r="A6" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="41" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="31" t="s">

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1136E6-358B-46D8-A863-DB82EFDAF99E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA1BFA-09E3-44DC-B403-CB8CCF42D057}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2705,7 +2705,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2798,6 +2798,7 @@
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="_x000a_shell=progma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3434,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3449,23 +3450,24 @@
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="26" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="26" customWidth="1"/>
-    <col min="20" max="22" width="18.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.42578125" style="26" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" style="26" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="23.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.5703125" style="26" customWidth="1"/>
     <col min="32" max="35" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19.7109375" customWidth="1"/>
     <col min="37" max="37" width="20.28515625" customWidth="1"/>
@@ -3689,16 +3691,16 @@
       </c>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31"/>
-      <c r="AF2" s="31">
+      <c r="AF2" s="42">
         <v>100</v>
       </c>
-      <c r="AG2" s="31">
+      <c r="AG2" s="42">
         <v>104</v>
       </c>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
       <c r="AL2" s="30"/>
     </row>
     <row r="3" spans="1:38" s="5" customFormat="1" ht="15.75" customHeight="1">
@@ -3804,18 +3806,18 @@
         <v>1</v>
       </c>
       <c r="AE3" s="31"/>
-      <c r="AF3" s="31">
+      <c r="AF3" s="42">
         <v>120</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AG3" s="42">
         <v>124</v>
       </c>
-      <c r="AH3" s="31">
+      <c r="AH3" s="42">
         <v>124</v>
       </c>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
       <c r="AL3" s="30"/>
     </row>
     <row r="4" spans="1:38" s="5" customFormat="1">
@@ -3921,18 +3923,18 @@
         <v>1</v>
       </c>
       <c r="AE4" s="31"/>
-      <c r="AF4" s="31">
+      <c r="AF4" s="42">
         <v>102</v>
       </c>
-      <c r="AG4" s="31">
+      <c r="AG4" s="42">
         <v>121</v>
       </c>
-      <c r="AH4" s="31">
+      <c r="AH4" s="42">
         <v>121</v>
       </c>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
       <c r="AL4" s="30"/>
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1">
@@ -4040,20 +4042,20 @@
       <c r="AE5" s="31">
         <v>1</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="42">
         <v>693</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="42">
         <v>696</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="42">
         <v>702</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="42">
         <v>700</v>
       </c>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
       <c r="AL5" s="30"/>
     </row>
     <row r="6" spans="1:38" s="5" customFormat="1">
@@ -4161,20 +4163,20 @@
       <c r="AE6" s="31">
         <v>0</v>
       </c>
-      <c r="AF6" s="31">
+      <c r="AF6" s="42">
         <v>695</v>
       </c>
-      <c r="AG6" s="31">
+      <c r="AG6" s="42">
         <v>688</v>
       </c>
-      <c r="AH6" s="30">
+      <c r="AH6" s="42">
         <v>689</v>
       </c>
-      <c r="AI6" s="30">
+      <c r="AI6" s="42">
         <v>701</v>
       </c>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
       <c r="AL6" s="30"/>
     </row>
     <row r="7" spans="1:38">
@@ -4869,7 +4871,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA1BFA-09E3-44DC-B403-CB8CCF42D057}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="8" r:id="rId1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -706,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -831,12 +830,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1077,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1519,12 +1518,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
-    <numFmt numFmtId="166" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
+    <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="51">
     <font>
@@ -2514,7 +2513,7 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2538,16 +2537,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="47" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -2801,267 +2800,267 @@
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="261">
-    <cellStyle name="_x000a_shell=progma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_x000a_shell=progma 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_x000a_shell=progma 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_x000a_shell=progma 2 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_x000a_shell=progma 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_x000a_shell=progma_CDR_TP_W10_B_Rbs_PA2" xfId="101" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="%" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="% 14" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="% 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="% 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="% 7" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="%_Asignacion RNCs MAN MALAGA 2011 S.21" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="%_BASICO 7.2 PLANTILLA DATOS RADIO nueva integración  SIN DATOS TX 2300291 ANDUJAR MIRANDA" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="%_DATOS RADIO AMP PORT MEDIO 7.2 400479 HUERCAL OVERA CUARTEL -b" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="%_MA12012602-DATOS RADIO AMP PORT MEDIO 7.2 2900146 ALMOGIA EB" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="%_MA12021301_DATOS RADIO AMP PORT M 7.2-B 7.2 2900174 OJENv2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="%_Masterlist" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="%_Masterlist 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="%_Plantilla_datos_radio_conf2012_v10 (2)" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="%_Plantilla_datos_radio_conf2012_v2" xfId="17" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="_DATOS RNC UMTS-020806" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="_SAC_generar_el_archivo_en_Provincia" xfId="19" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="_UMTS-AREATZA_3G-3G3G-2G" xfId="20" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="_VARIOS_2011_05_25" xfId="21" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="_VARIOS_2011_05_25_GOAM 1P" xfId="22" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="_X_template_I.P_v1" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="24" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - Accent1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - Accent1 3" xfId="221" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - Accent1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - Accent1 5" xfId="246" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - Accent2 3" xfId="220" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - Accent2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - Accent2 5" xfId="249" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="20% - Accent3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - Accent3 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - Accent3 5" xfId="250" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - Accent4 3" xfId="218" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - Accent4 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - Accent4 5" xfId="254" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - Accent5 3" xfId="130" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="20% - Accent5 4" xfId="217" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="20% - Accent5 5" xfId="183" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - Accent6 3" xfId="216" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="20% - Accent6 4" xfId="182" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - Accent6 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="_x000a_shell=progma" xfId="4"/>
+    <cellStyle name="_x000a_shell=progma 2" xfId="96"/>
+    <cellStyle name="_x000a_shell=progma 2 2" xfId="98"/>
+    <cellStyle name="_x000a_shell=progma 2 2 2" xfId="164"/>
+    <cellStyle name="_x000a_shell=progma 3" xfId="102"/>
+    <cellStyle name="_x000a_shell=progma_CDR_TP_W10_B_Rbs_PA2" xfId="101"/>
+    <cellStyle name="%" xfId="5"/>
+    <cellStyle name="% 14" xfId="6"/>
+    <cellStyle name="% 2" xfId="7"/>
+    <cellStyle name="% 2 2 2" xfId="8"/>
+    <cellStyle name="% 7" xfId="9"/>
+    <cellStyle name="%_Asignacion RNCs MAN MALAGA 2011 S.21" xfId="10"/>
+    <cellStyle name="%_BASICO 7.2 PLANTILLA DATOS RADIO nueva integración  SIN DATOS TX 2300291 ANDUJAR MIRANDA" xfId="11"/>
+    <cellStyle name="%_DATOS RADIO AMP PORT MEDIO 7.2 400479 HUERCAL OVERA CUARTEL -b" xfId="12"/>
+    <cellStyle name="%_MA12012602-DATOS RADIO AMP PORT MEDIO 7.2 2900146 ALMOGIA EB" xfId="13"/>
+    <cellStyle name="%_MA12021301_DATOS RADIO AMP PORT M 7.2-B 7.2 2900174 OJENv2" xfId="14"/>
+    <cellStyle name="%_Masterlist" xfId="15"/>
+    <cellStyle name="%_Masterlist 2" xfId="93"/>
+    <cellStyle name="%_Plantilla_datos_radio_conf2012_v10 (2)" xfId="16"/>
+    <cellStyle name="%_Plantilla_datos_radio_conf2012_v2" xfId="17"/>
+    <cellStyle name="_DATOS RNC UMTS-020806" xfId="18"/>
+    <cellStyle name="_SAC_generar_el_archivo_en_Provincia" xfId="19"/>
+    <cellStyle name="_UMTS-AREATZA_3G-3G3G-2G" xfId="20"/>
+    <cellStyle name="_VARIOS_2011_05_25" xfId="21"/>
+    <cellStyle name="_VARIOS_2011_05_25_GOAM 1P" xfId="22"/>
+    <cellStyle name="_X_template_I.P_v1" xfId="23"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="24"/>
+    <cellStyle name="20% - Accent1 2" xfId="25"/>
+    <cellStyle name="20% - Accent1 3" xfId="221"/>
+    <cellStyle name="20% - Accent1 4" xfId="187"/>
+    <cellStyle name="20% - Accent1 5" xfId="246"/>
+    <cellStyle name="20% - Accent2 2" xfId="26"/>
+    <cellStyle name="20% - Accent2 3" xfId="220"/>
+    <cellStyle name="20% - Accent2 4" xfId="186"/>
+    <cellStyle name="20% - Accent2 5" xfId="249"/>
+    <cellStyle name="20% - Accent3 2" xfId="27"/>
+    <cellStyle name="20% - Accent3 3" xfId="219"/>
+    <cellStyle name="20% - Accent3 4" xfId="185"/>
+    <cellStyle name="20% - Accent3 5" xfId="250"/>
+    <cellStyle name="20% - Accent4 2" xfId="28"/>
+    <cellStyle name="20% - Accent4 3" xfId="218"/>
+    <cellStyle name="20% - Accent4 4" xfId="184"/>
+    <cellStyle name="20% - Accent4 5" xfId="254"/>
+    <cellStyle name="20% - Accent5 2" xfId="34"/>
+    <cellStyle name="20% - Accent5 3" xfId="130"/>
+    <cellStyle name="20% - Accent5 4" xfId="217"/>
+    <cellStyle name="20% - Accent5 5" xfId="183"/>
+    <cellStyle name="20% - Accent6 2" xfId="29"/>
+    <cellStyle name="20% - Accent6 3" xfId="216"/>
+    <cellStyle name="20% - Accent6 4" xfId="182"/>
+    <cellStyle name="20% - Accent6 5" xfId="257"/>
     <cellStyle name="20% - Colore 1" xfId="129" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Colore 2" xfId="128" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Colore 3" xfId="127" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Colore 4" xfId="126" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Colore 5" xfId="125" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Colore 6" xfId="124" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="40% - Accent1 3" xfId="215" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - Accent1 4" xfId="181" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="40% - Accent1 5" xfId="247" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="40% - Accent2 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - Accent2 4" xfId="214" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - Accent2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="40% - Accent3 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - Accent3 4" xfId="179" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - Accent3 5" xfId="251" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - Accent4 3" xfId="212" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - Accent4 4" xfId="178" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - Accent4 5" xfId="255" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - Accent5 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - Accent5 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - Accent5 5" xfId="177" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - Accent6 3" xfId="210" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - Accent6 4" xfId="176" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - Accent6 5" xfId="258" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="30"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="31"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="32"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="33"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="35"/>
+    <cellStyle name="40% - Accent1 2" xfId="36"/>
+    <cellStyle name="40% - Accent1 3" xfId="215"/>
+    <cellStyle name="40% - Accent1 4" xfId="181"/>
+    <cellStyle name="40% - Accent1 5" xfId="247"/>
+    <cellStyle name="40% - Accent2 2" xfId="41"/>
+    <cellStyle name="40% - Accent2 3" xfId="123"/>
+    <cellStyle name="40% - Accent2 4" xfId="214"/>
+    <cellStyle name="40% - Accent2 5" xfId="180"/>
+    <cellStyle name="40% - Accent3 2" xfId="37"/>
+    <cellStyle name="40% - Accent3 3" xfId="213"/>
+    <cellStyle name="40% - Accent3 4" xfId="179"/>
+    <cellStyle name="40% - Accent3 5" xfId="251"/>
+    <cellStyle name="40% - Accent4 2" xfId="38"/>
+    <cellStyle name="40% - Accent4 3" xfId="212"/>
+    <cellStyle name="40% - Accent4 4" xfId="178"/>
+    <cellStyle name="40% - Accent4 5" xfId="255"/>
+    <cellStyle name="40% - Accent5 2" xfId="44"/>
+    <cellStyle name="40% - Accent5 3" xfId="122"/>
+    <cellStyle name="40% - Accent5 4" xfId="211"/>
+    <cellStyle name="40% - Accent5 5" xfId="177"/>
+    <cellStyle name="40% - Accent6 2" xfId="39"/>
+    <cellStyle name="40% - Accent6 3" xfId="210"/>
+    <cellStyle name="40% - Accent6 4" xfId="176"/>
+    <cellStyle name="40% - Accent6 5" xfId="258"/>
     <cellStyle name="40% - Colore 1" xfId="121" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Colore 2" xfId="120" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Colore 3" xfId="119" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Colore 4" xfId="118" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Colore 5" xfId="117" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Colore 6" xfId="116" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="60% - Accent1 3" xfId="209" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="60% - Accent1 4" xfId="175" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="60% - Accent1 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="60% - Accent2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="60% - Accent2 4" xfId="208" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="60% - Accent2 5" xfId="174" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="60% - Accent3 3" xfId="207" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="60% - Accent3 4" xfId="173" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="60% - Accent3 5" xfId="252" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="60% - Accent4 3" xfId="206" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="60% - Accent4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="60% - Accent4 5" xfId="256" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="60% - Accent5 3" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="60% - Accent5 4" xfId="205" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="60% - Accent5 5" xfId="171" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="60% - Accent6 3" xfId="222" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="60% - Accent6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="60% - Accent6 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="40"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="42"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="43"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="45"/>
+    <cellStyle name="60% - Accent1 2" xfId="46"/>
+    <cellStyle name="60% - Accent1 3" xfId="209"/>
+    <cellStyle name="60% - Accent1 4" xfId="175"/>
+    <cellStyle name="60% - Accent1 5" xfId="248"/>
+    <cellStyle name="60% - Accent2 2" xfId="51"/>
+    <cellStyle name="60% - Accent2 3" xfId="115"/>
+    <cellStyle name="60% - Accent2 4" xfId="208"/>
+    <cellStyle name="60% - Accent2 5" xfId="174"/>
+    <cellStyle name="60% - Accent3 2" xfId="47"/>
+    <cellStyle name="60% - Accent3 3" xfId="207"/>
+    <cellStyle name="60% - Accent3 4" xfId="173"/>
+    <cellStyle name="60% - Accent3 5" xfId="252"/>
+    <cellStyle name="60% - Accent4 2" xfId="48"/>
+    <cellStyle name="60% - Accent4 3" xfId="206"/>
+    <cellStyle name="60% - Accent4 4" xfId="172"/>
+    <cellStyle name="60% - Accent4 5" xfId="256"/>
+    <cellStyle name="60% - Accent5 2" xfId="54"/>
+    <cellStyle name="60% - Accent5 3" xfId="114"/>
+    <cellStyle name="60% - Accent5 4" xfId="205"/>
+    <cellStyle name="60% - Accent5 5" xfId="171"/>
+    <cellStyle name="60% - Accent6 2" xfId="49"/>
+    <cellStyle name="60% - Accent6 3" xfId="222"/>
+    <cellStyle name="60% - Accent6 4" xfId="188"/>
+    <cellStyle name="60% - Accent6 5" xfId="259"/>
     <cellStyle name="60% - Colore 1" xfId="113" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Colore 2" xfId="112" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Colore 3" xfId="111" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Colore 4" xfId="110" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Colore 5" xfId="109" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Colore 6" xfId="131" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Accent1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Accent1 3" xfId="223" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Accent1 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Accent1 5" xfId="245" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Accent2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Accent2 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Accent2 4" xfId="224" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Accent2 5" xfId="190" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Accent3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Accent3 3" xfId="133" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Accent3 4" xfId="225" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Accent3 5" xfId="191" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Accent4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Accent4 3" xfId="226" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Accent4 4" xfId="192" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Accent4 5" xfId="253" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Accent5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Accent5 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Accent5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Accent5 5" xfId="193" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Accent6 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Accent6 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Accent6 4" xfId="228" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Accent6 5" xfId="194" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Bad 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Bad 3" xfId="136" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="Bad 4" xfId="237" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Bad 5" xfId="203" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="Buena 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Calcolo" xfId="165" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Calculation 2" xfId="59" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Cálculo 2" xfId="60" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Celda de comprobación 2" xfId="61" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Celda vinculada 2" xfId="62" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Cella collegata" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Cella da controllare" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Check Cell 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="50"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="52"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="53"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="55"/>
+    <cellStyle name="Accent1 2" xfId="56"/>
+    <cellStyle name="Accent1 3" xfId="223"/>
+    <cellStyle name="Accent1 4" xfId="189"/>
+    <cellStyle name="Accent1 5" xfId="245"/>
+    <cellStyle name="Accent2 2" xfId="66"/>
+    <cellStyle name="Accent2 3" xfId="132"/>
+    <cellStyle name="Accent2 4" xfId="224"/>
+    <cellStyle name="Accent2 5" xfId="190"/>
+    <cellStyle name="Accent3 2" xfId="67"/>
+    <cellStyle name="Accent3 3" xfId="133"/>
+    <cellStyle name="Accent3 4" xfId="225"/>
+    <cellStyle name="Accent3 5" xfId="191"/>
+    <cellStyle name="Accent4 2" xfId="57"/>
+    <cellStyle name="Accent4 3" xfId="226"/>
+    <cellStyle name="Accent4 4" xfId="192"/>
+    <cellStyle name="Accent4 5" xfId="253"/>
+    <cellStyle name="Accent5 2" xfId="69"/>
+    <cellStyle name="Accent5 3" xfId="134"/>
+    <cellStyle name="Accent5 4" xfId="227"/>
+    <cellStyle name="Accent5 5" xfId="193"/>
+    <cellStyle name="Accent6 2" xfId="70"/>
+    <cellStyle name="Accent6 3" xfId="135"/>
+    <cellStyle name="Accent6 4" xfId="228"/>
+    <cellStyle name="Accent6 5" xfId="194"/>
+    <cellStyle name="Bad 2" xfId="76"/>
+    <cellStyle name="Bad 3" xfId="136"/>
+    <cellStyle name="Bad 4" xfId="237"/>
+    <cellStyle name="Bad 5" xfId="203"/>
+    <cellStyle name="Buena 2" xfId="58"/>
+    <cellStyle name="Calcolo" xfId="165"/>
+    <cellStyle name="Calculation 2" xfId="59"/>
+    <cellStyle name="Cálculo 2" xfId="60"/>
+    <cellStyle name="Celda de comprobación 2" xfId="61"/>
+    <cellStyle name="Celda vinculada 2" xfId="62"/>
+    <cellStyle name="Cella collegata" xfId="166"/>
+    <cellStyle name="Cella da controllare" xfId="167"/>
+    <cellStyle name="Check Cell 2" xfId="137"/>
     <cellStyle name="Colore 1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Colore 2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Colore 3" xfId="140" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Colore 4" xfId="141" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Colore 5" xfId="142" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Colore 6" xfId="143" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="edlsfjk" xfId="63" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Encabezado 4 2" xfId="64" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Énfasis1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="Énfasis4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Entrada 2" xfId="71" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Estilo 1" xfId="72" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Euro" xfId="73" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Euro 2" xfId="95" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="86" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Explanatory Text 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Explanatory Text 4" xfId="230" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Explanatory Text 5" xfId="196" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Good 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="Good 3" xfId="238" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="Good 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Good 5" xfId="244" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Heading 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="Heading 1 3" xfId="232" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="Heading 1 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Heading 1 5" xfId="240" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Heading 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="Heading 2 3" xfId="233" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Heading 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Heading 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Heading 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="Heading 3 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Heading 3 4" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Heading 3 5" xfId="242" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Heading 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Heading 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Heading 4 4" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Heading 4 5" xfId="243" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="edlsfjk" xfId="63"/>
+    <cellStyle name="Encabezado 4 2" xfId="64"/>
+    <cellStyle name="Énfasis1 2" xfId="65"/>
+    <cellStyle name="Énfasis4 2" xfId="68"/>
+    <cellStyle name="Entrada 2" xfId="71"/>
+    <cellStyle name="Estilo 1" xfId="72"/>
+    <cellStyle name="Euro" xfId="73"/>
+    <cellStyle name="Euro 2" xfId="95"/>
+    <cellStyle name="Explanatory Text 2" xfId="86"/>
+    <cellStyle name="Explanatory Text 3" xfId="144"/>
+    <cellStyle name="Explanatory Text 4" xfId="230"/>
+    <cellStyle name="Explanatory Text 5" xfId="196"/>
+    <cellStyle name="Good 2" xfId="145"/>
+    <cellStyle name="Good 3" xfId="238"/>
+    <cellStyle name="Good 4" xfId="204"/>
+    <cellStyle name="Good 5" xfId="244"/>
+    <cellStyle name="Heading 1 2" xfId="146"/>
+    <cellStyle name="Heading 1 3" xfId="232"/>
+    <cellStyle name="Heading 1 4" xfId="198"/>
+    <cellStyle name="Heading 1 5" xfId="240"/>
+    <cellStyle name="Heading 2 2" xfId="74"/>
+    <cellStyle name="Heading 2 3" xfId="233"/>
+    <cellStyle name="Heading 2 4" xfId="199"/>
+    <cellStyle name="Heading 2 5" xfId="241"/>
+    <cellStyle name="Heading 3 2" xfId="75"/>
+    <cellStyle name="Heading 3 3" xfId="234"/>
+    <cellStyle name="Heading 3 4" xfId="200"/>
+    <cellStyle name="Heading 3 5" xfId="242"/>
+    <cellStyle name="Heading 4 2" xfId="147"/>
+    <cellStyle name="Heading 4 3" xfId="235"/>
+    <cellStyle name="Heading 4 4" xfId="201"/>
+    <cellStyle name="Heading 4 5" xfId="243"/>
     <cellStyle name="Input" xfId="2" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Jun" xfId="97" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Migliaia (0)_app2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Neutral 2" xfId="77" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Neutral 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Neutral 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Neutral 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Input 2" xfId="148"/>
+    <cellStyle name="Jun" xfId="97"/>
+    <cellStyle name="Linked Cell 2" xfId="149"/>
+    <cellStyle name="Migliaia (0)_app2" xfId="99"/>
+    <cellStyle name="Neutral 2" xfId="77"/>
+    <cellStyle name="Neutral 3" xfId="150"/>
+    <cellStyle name="Neutral 4" xfId="229"/>
+    <cellStyle name="Neutral 5" xfId="195"/>
     <cellStyle name="Neutrale" xfId="151" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="78" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Normal 3" xfId="79" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Normal 3 2" xfId="94" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Normal 4" xfId="100" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Normal 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 2" xfId="78"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="79"/>
+    <cellStyle name="Normal 3 2" xfId="94"/>
+    <cellStyle name="Normal 4" xfId="100"/>
+    <cellStyle name="Normal 4 2" xfId="170"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="108" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Normale 4" xfId="106" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Normale_CDR_Wind_Project_Roma_revH_6_0_fogli radio 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Nota" xfId="169" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="Nota 2" xfId="103" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Nota 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="Notas 2" xfId="80" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="Note 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="nteb" xfId="81" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normale 2" xfId="108"/>
+    <cellStyle name="Normale 4" xfId="106"/>
+    <cellStyle name="Normale_CDR_Wind_Project_Roma_revH_6_0_fogli radio 2" xfId="260"/>
+    <cellStyle name="Nota" xfId="169"/>
+    <cellStyle name="Nota 2" xfId="103"/>
+    <cellStyle name="Nota 2 2" xfId="107"/>
+    <cellStyle name="Notas 2" xfId="80"/>
+    <cellStyle name="Note 2" xfId="152"/>
+    <cellStyle name="nteb" xfId="81"/>
     <cellStyle name="Output" xfId="3" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Output 2" xfId="82" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="Salida 2" xfId="83" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="Style 1" xfId="84" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Style 1 2" xfId="105" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="Testo avviso" xfId="168" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Output 2" xfId="82"/>
+    <cellStyle name="Salida 2" xfId="83"/>
+    <cellStyle name="Style 1" xfId="84"/>
+    <cellStyle name="Style 1 2" xfId="105"/>
+    <cellStyle name="Testo avviso" xfId="168"/>
     <cellStyle name="Testo descrittivo" xfId="153" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia 2" xfId="85" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="Title 2" xfId="87" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="Title 3" xfId="231" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Title 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="Title 5" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Texto de advertencia 2" xfId="85"/>
+    <cellStyle name="Title 2" xfId="87"/>
+    <cellStyle name="Title 3" xfId="231"/>
+    <cellStyle name="Title 4" xfId="197"/>
+    <cellStyle name="Title 5" xfId="239"/>
     <cellStyle name="Titolo" xfId="154" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titolo 1" xfId="155" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titolo 2" xfId="156" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titolo 3" xfId="157" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Titolo 4" xfId="158" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Título 1 2" xfId="88" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Título 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="Título 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Título 4" xfId="91" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="Total 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Total 3" xfId="159" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="Total 4" xfId="236" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="Total 5" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Título 1 2" xfId="88"/>
+    <cellStyle name="Título 2 2" xfId="89"/>
+    <cellStyle name="Título 3 2" xfId="90"/>
+    <cellStyle name="Título 4" xfId="91"/>
+    <cellStyle name="Total 2" xfId="92"/>
+    <cellStyle name="Total 3" xfId="159"/>
+    <cellStyle name="Total 4" xfId="236"/>
+    <cellStyle name="Total 5" xfId="202"/>
     <cellStyle name="Totale" xfId="160" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Valore non valido" xfId="161" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Valore valido" xfId="162" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Valuta (0)_app2" xfId="104" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="Warning Text 2" xfId="163" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Valuta (0)_app2" xfId="104"/>
+    <cellStyle name="Warning Text 2" xfId="163"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3370,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3432,11 +3431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3697,7 +3696,9 @@
       <c r="AG2" s="42">
         <v>104</v>
       </c>
-      <c r="AH2" s="42"/>
+      <c r="AH2" s="42">
+        <v>104</v>
+      </c>
       <c r="AI2" s="42"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
@@ -4207,7 +4208,7 @@
     <sortCondition ref="C2:C7"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6">
       <formula1>"keep_locked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4218,7 +4219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4857,7 +4858,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H9"/>
   <sortState ref="A2:J267">
     <sortCondition ref="C2:C267"/>
     <sortCondition ref="E2:E267"/>
@@ -4867,7 +4868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5684,14 +5685,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6602,7 +6603,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U13" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:U13"/>
   <sortState ref="A2:U102">
     <sortCondition ref="B2:B102"/>
   </sortState>
@@ -6612,7 +6613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
+++ b/CDR_CE_LT068_GSM_MODERNIZATION_ver1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="Questa_cartella_di_lavoro"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BTS!$B$1:$AL$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'External 3G cells'!$A$1:$U$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3370,6 +3370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3432,45 +3433,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="26" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="26" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="26" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="26" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="18.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.5703125" style="26" customWidth="1"/>
-    <col min="32" max="35" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.7109375" customWidth="1"/>
-    <col min="37" max="37" width="20.28515625" customWidth="1"/>
-    <col min="38" max="38" width="26.7109375" customWidth="1"/>
+    <col min="30" max="31" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" customWidth="1"/>
+    <col min="33" max="37" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="14" customFormat="1">
@@ -3683,15 +3686,15 @@
         <v>8</v>
       </c>
       <c r="AB2" s="38">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AC2" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31"/>
       <c r="AF2" s="42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="42">
         <v>104</v>
@@ -3704,7 +3707,7 @@
       <c r="AK2" s="42"/>
       <c r="AL2" s="30"/>
     </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:38" s="5" customFormat="1">
       <c r="A3" s="35" t="s">
         <v>70</v>
       </c>
@@ -3801,10 +3804,10 @@
         <v>6</v>
       </c>
       <c r="AC3" s="31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="31"/>
       <c r="AF3" s="42">
@@ -3921,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE4" s="31"/>
       <c r="AF4" s="42">
@@ -4035,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="AC5" s="31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="31">
         <v>2</v>
@@ -4053,7 +4056,7 @@
         <v>702</v>
       </c>
       <c r="AI5" s="42">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ5" s="42"/>
       <c r="AK5" s="42"/>
@@ -4159,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="AD6" s="31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE6" s="31">
         <v>0</v>
@@ -4220,6 +4223,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4869,6 +4873,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Foglio4"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5693,6 +5698,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Foglio5"/>
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6614,6 +6620,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Foglio6"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
